--- a/pcb_experiment/coeff125ch.xlsx
+++ b/pcb_experiment/coeff125ch.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geccutokyoacjp-my.sharepoint.com/personal/kurumi-doi_g_ecc_u-tokyo_ac_jp/Documents/labo/experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunhancai/Google Drive/磁気プローブ/matlab磁気プローブ解析new/pcb_experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="912" documentId="11_AD4D066CA252ABDACC1048862115CAFA73EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CEA6CE4-872D-4F59-9B09-FCB8B3068AF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8733F15-A7AA-B04F-82FB-E949C0EDBB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="760" windowWidth="24740" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="230119" sheetId="6" r:id="rId1"/>
     <sheet name="230110" sheetId="5" r:id="rId2"/>
     <sheet name="230103" sheetId="3" r:id="rId3"/>
     <sheet name="221219 " sheetId="2" r:id="rId4"/>
-    <sheet name="0" sheetId="1" r:id="rId5"/>
-    <sheet name="p_ch" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="0" sheetId="1" r:id="rId6"/>
+    <sheet name="p_ch" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="22">
   <si>
     <t>dtacq_num</t>
     <phoneticPr fontId="1"/>
@@ -152,17 +153,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -200,7 +201,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -213,10 +214,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,24 +481,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67421BA7-58AF-4416-B1CB-CC223E494430}">
   <dimension ref="A1:X129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="N96" sqref="N96"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.9140625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.9140625" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>38</v>
       </c>
@@ -619,7 +616,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>38</v>
       </c>
@@ -667,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>38</v>
       </c>
@@ -715,7 +712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>38</v>
       </c>
@@ -763,7 +760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>38</v>
       </c>
@@ -811,7 +808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>38</v>
       </c>
@@ -859,7 +856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>38</v>
       </c>
@@ -907,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>38</v>
       </c>
@@ -955,7 +952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>38</v>
       </c>
@@ -1003,7 +1000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>38</v>
       </c>
@@ -1051,7 +1048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>38</v>
       </c>
@@ -1099,7 +1096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>38</v>
       </c>
@@ -1147,7 +1144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>38</v>
       </c>
@@ -1195,7 +1192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>38</v>
       </c>
@@ -1243,7 +1240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>38</v>
       </c>
@@ -1291,7 +1288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>38</v>
       </c>
@@ -1339,7 +1336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>38</v>
       </c>
@@ -1387,7 +1384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>38</v>
       </c>
@@ -1435,7 +1432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>38</v>
       </c>
@@ -1483,7 +1480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>38</v>
       </c>
@@ -1531,7 +1528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>38</v>
       </c>
@@ -1579,7 +1576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>38</v>
       </c>
@@ -1627,7 +1624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>38</v>
       </c>
@@ -1675,7 +1672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>38</v>
       </c>
@@ -1723,7 +1720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>38</v>
       </c>
@@ -1771,7 +1768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>38</v>
       </c>
@@ -1819,7 +1816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>38</v>
       </c>
@@ -1867,7 +1864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>38</v>
       </c>
@@ -1915,7 +1912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>38</v>
       </c>
@@ -1963,7 +1960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>38</v>
       </c>
@@ -2011,7 +2008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>38</v>
       </c>
@@ -2059,7 +2056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>38</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>38</v>
       </c>
@@ -2155,7 +2152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>38</v>
       </c>
@@ -2203,7 +2200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>38</v>
       </c>
@@ -2251,7 +2248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>38</v>
       </c>
@@ -2299,7 +2296,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -2347,7 +2344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2395,7 +2392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2443,7 +2440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2491,7 +2488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
@@ -2539,7 +2536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>38</v>
       </c>
@@ -2587,7 +2584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>38</v>
       </c>
@@ -2635,7 +2632,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>38</v>
       </c>
@@ -2683,7 +2680,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>38</v>
       </c>
@@ -2731,7 +2728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>38</v>
       </c>
@@ -2779,7 +2776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>38</v>
       </c>
@@ -2827,7 +2824,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>38</v>
       </c>
@@ -2875,7 +2872,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>38</v>
       </c>
@@ -2923,7 +2920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>38</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>38</v>
       </c>
@@ -3019,7 +3016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>38</v>
       </c>
@@ -3067,7 +3064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>38</v>
       </c>
@@ -3115,7 +3112,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>38</v>
       </c>
@@ -3163,7 +3160,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>38</v>
       </c>
@@ -3211,7 +3208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>38</v>
       </c>
@@ -3259,7 +3256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>38</v>
       </c>
@@ -3307,7 +3304,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>38</v>
       </c>
@@ -3355,7 +3352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>38</v>
       </c>
@@ -3403,7 +3400,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>38</v>
       </c>
@@ -3451,7 +3448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>38</v>
       </c>
@@ -3499,7 +3496,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>38</v>
       </c>
@@ -3547,7 +3544,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>38</v>
       </c>
@@ -3573,7 +3570,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>38</v>
       </c>
@@ -3621,7 +3618,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>38</v>
       </c>
@@ -3669,7 +3666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>38</v>
       </c>
@@ -3717,7 +3714,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>38</v>
       </c>
@@ -3765,7 +3762,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>38</v>
       </c>
@@ -3813,7 +3810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>38</v>
       </c>
@@ -3861,7 +3858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>38</v>
       </c>
@@ -3909,7 +3906,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>38</v>
       </c>
@@ -3957,7 +3954,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>38</v>
       </c>
@@ -4005,7 +4002,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>38</v>
       </c>
@@ -4053,7 +4050,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>38</v>
       </c>
@@ -4101,7 +4098,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>38</v>
       </c>
@@ -4149,7 +4146,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>38</v>
       </c>
@@ -4197,7 +4194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>38</v>
       </c>
@@ -4245,7 +4242,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>38</v>
       </c>
@@ -4293,7 +4290,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>38</v>
       </c>
@@ -4341,7 +4338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>38</v>
       </c>
@@ -4389,7 +4386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>38</v>
       </c>
@@ -4437,7 +4434,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>38</v>
       </c>
@@ -4485,7 +4482,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>38</v>
       </c>
@@ -4533,7 +4530,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>38</v>
       </c>
@@ -4581,7 +4578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>38</v>
       </c>
@@ -4629,7 +4626,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>38</v>
       </c>
@@ -4677,7 +4674,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>38</v>
       </c>
@@ -4725,7 +4722,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>38</v>
       </c>
@@ -4773,7 +4770,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>38</v>
       </c>
@@ -4821,7 +4818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>38</v>
       </c>
@@ -4869,7 +4866,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>38</v>
       </c>
@@ -4917,7 +4914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>38</v>
       </c>
@@ -4965,7 +4962,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>38</v>
       </c>
@@ -5013,7 +5010,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>38</v>
       </c>
@@ -5061,7 +5058,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>38</v>
       </c>
@@ -5109,7 +5106,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>38</v>
       </c>
@@ -5157,7 +5154,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>38</v>
       </c>
@@ -5205,7 +5202,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>38</v>
       </c>
@@ -5253,7 +5250,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>38</v>
       </c>
@@ -5301,7 +5298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>38</v>
       </c>
@@ -5349,7 +5346,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>38</v>
       </c>
@@ -5397,7 +5394,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>38</v>
       </c>
@@ -5445,7 +5442,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>38</v>
       </c>
@@ -5493,7 +5490,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>38</v>
       </c>
@@ -5541,7 +5538,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>38</v>
       </c>
@@ -5589,7 +5586,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>38</v>
       </c>
@@ -5637,7 +5634,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>38</v>
       </c>
@@ -5685,7 +5682,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>38</v>
       </c>
@@ -5733,7 +5730,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>38</v>
       </c>
@@ -5781,7 +5778,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>38</v>
       </c>
@@ -5829,7 +5826,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>38</v>
       </c>
@@ -5877,7 +5874,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>38</v>
       </c>
@@ -5925,7 +5922,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>38</v>
       </c>
@@ -5973,7 +5970,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>38</v>
       </c>
@@ -6021,7 +6018,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>38</v>
       </c>
@@ -6069,7 +6066,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>38</v>
       </c>
@@ -6117,7 +6114,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>38</v>
       </c>
@@ -6165,7 +6162,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>38</v>
       </c>
@@ -6213,7 +6210,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>38</v>
       </c>
@@ -6261,7 +6258,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>38</v>
       </c>
@@ -6309,7 +6306,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>38</v>
       </c>
@@ -6357,7 +6354,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>38</v>
       </c>
@@ -6405,7 +6402,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>38</v>
       </c>
@@ -6453,7 +6450,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>38</v>
       </c>
@@ -6501,7 +6498,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>38</v>
       </c>
@@ -6549,7 +6546,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>38</v>
       </c>
@@ -6591,7 +6588,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>38</v>
       </c>
@@ -6611,7 +6608,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>38</v>
       </c>
@@ -6646,20 +6643,20 @@
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.9140625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.9140625" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6727,7 +6724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>38</v>
       </c>
@@ -6777,7 +6774,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>38</v>
       </c>
@@ -6825,7 +6822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>38</v>
       </c>
@@ -6873,7 +6870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>38</v>
       </c>
@@ -6921,7 +6918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>38</v>
       </c>
@@ -6969,7 +6966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>38</v>
       </c>
@@ -7017,7 +7014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>38</v>
       </c>
@@ -7065,7 +7062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>38</v>
       </c>
@@ -7113,7 +7110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>38</v>
       </c>
@@ -7161,7 +7158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>38</v>
       </c>
@@ -7209,7 +7206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>38</v>
       </c>
@@ -7257,7 +7254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>38</v>
       </c>
@@ -7305,7 +7302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>38</v>
       </c>
@@ -7353,7 +7350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>38</v>
       </c>
@@ -7401,7 +7398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>38</v>
       </c>
@@ -7449,7 +7446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>38</v>
       </c>
@@ -7497,7 +7494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>38</v>
       </c>
@@ -7545,7 +7542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>38</v>
       </c>
@@ -7593,7 +7590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>38</v>
       </c>
@@ -7641,7 +7638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>38</v>
       </c>
@@ -7689,7 +7686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>38</v>
       </c>
@@ -7737,7 +7734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>38</v>
       </c>
@@ -7785,7 +7782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>38</v>
       </c>
@@ -7833,7 +7830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>38</v>
       </c>
@@ -7881,7 +7878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>38</v>
       </c>
@@ -7929,7 +7926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>38</v>
       </c>
@@ -7977,7 +7974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>38</v>
       </c>
@@ -8025,7 +8022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>38</v>
       </c>
@@ -8073,7 +8070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>38</v>
       </c>
@@ -8121,7 +8118,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>38</v>
       </c>
@@ -8169,7 +8166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>38</v>
       </c>
@@ -8217,7 +8214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>38</v>
       </c>
@@ -8265,7 +8262,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>38</v>
       </c>
@@ -8313,7 +8310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>38</v>
       </c>
@@ -8361,7 +8358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>38</v>
       </c>
@@ -8409,7 +8406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>38</v>
       </c>
@@ -8457,7 +8454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -8505,7 +8502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8553,7 +8550,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -8601,7 +8598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -8649,7 +8646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
@@ -8697,7 +8694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>38</v>
       </c>
@@ -8745,7 +8742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>38</v>
       </c>
@@ -8793,7 +8790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>38</v>
       </c>
@@ -8841,7 +8838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>38</v>
       </c>
@@ -8889,7 +8886,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>38</v>
       </c>
@@ -8937,7 +8934,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>38</v>
       </c>
@@ -8985,7 +8982,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>38</v>
       </c>
@@ -9033,7 +9030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>38</v>
       </c>
@@ -9081,7 +9078,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>38</v>
       </c>
@@ -9129,7 +9126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>38</v>
       </c>
@@ -9177,7 +9174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>38</v>
       </c>
@@ -9225,7 +9222,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>38</v>
       </c>
@@ -9273,7 +9270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>38</v>
       </c>
@@ -9321,7 +9318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>38</v>
       </c>
@@ -9369,7 +9366,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>38</v>
       </c>
@@ -9417,7 +9414,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>38</v>
       </c>
@@ -9465,7 +9462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>38</v>
       </c>
@@ -9513,7 +9510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>38</v>
       </c>
@@ -9561,7 +9558,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>38</v>
       </c>
@@ -9609,7 +9606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>38</v>
       </c>
@@ -9657,7 +9654,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>38</v>
       </c>
@@ -9705,7 +9702,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>38</v>
       </c>
@@ -9731,7 +9728,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>38</v>
       </c>
@@ -9779,7 +9776,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>38</v>
       </c>
@@ -9827,7 +9824,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>38</v>
       </c>
@@ -9875,7 +9872,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>38</v>
       </c>
@@ -9923,7 +9920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>38</v>
       </c>
@@ -9971,7 +9968,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>38</v>
       </c>
@@ -10019,7 +10016,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>38</v>
       </c>
@@ -10067,7 +10064,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>38</v>
       </c>
@@ -10115,7 +10112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>38</v>
       </c>
@@ -10163,7 +10160,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>38</v>
       </c>
@@ -10211,7 +10208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>38</v>
       </c>
@@ -10259,7 +10256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>38</v>
       </c>
@@ -10307,7 +10304,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>38</v>
       </c>
@@ -10355,7 +10352,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>38</v>
       </c>
@@ -10403,7 +10400,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>38</v>
       </c>
@@ -10451,7 +10448,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>38</v>
       </c>
@@ -10499,7 +10496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>38</v>
       </c>
@@ -10547,7 +10544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>38</v>
       </c>
@@ -10595,7 +10592,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>38</v>
       </c>
@@ -10643,7 +10640,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>38</v>
       </c>
@@ -10691,7 +10688,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>38</v>
       </c>
@@ -10739,7 +10736,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>38</v>
       </c>
@@ -10787,7 +10784,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>38</v>
       </c>
@@ -10835,7 +10832,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>38</v>
       </c>
@@ -10883,7 +10880,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>38</v>
       </c>
@@ -10931,7 +10928,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>38</v>
       </c>
@@ -10979,7 +10976,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>38</v>
       </c>
@@ -11027,7 +11024,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>38</v>
       </c>
@@ -11075,7 +11072,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>38</v>
       </c>
@@ -11123,7 +11120,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>38</v>
       </c>
@@ -11171,7 +11168,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>38</v>
       </c>
@@ -11219,7 +11216,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>38</v>
       </c>
@@ -11267,7 +11264,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>38</v>
       </c>
@@ -11315,7 +11312,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>38</v>
       </c>
@@ -11363,7 +11360,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>38</v>
       </c>
@@ -11411,7 +11408,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>38</v>
       </c>
@@ -11459,7 +11456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>38</v>
       </c>
@@ -11507,7 +11504,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>38</v>
       </c>
@@ -11555,7 +11552,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>38</v>
       </c>
@@ -11603,7 +11600,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>38</v>
       </c>
@@ -11651,7 +11648,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>38</v>
       </c>
@@ -11699,7 +11696,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>38</v>
       </c>
@@ -11747,7 +11744,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>38</v>
       </c>
@@ -11795,7 +11792,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>38</v>
       </c>
@@ -11843,7 +11840,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>38</v>
       </c>
@@ -11891,7 +11888,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>38</v>
       </c>
@@ -11939,7 +11936,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>38</v>
       </c>
@@ -11987,7 +11984,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>38</v>
       </c>
@@ -12035,7 +12032,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>38</v>
       </c>
@@ -12083,7 +12080,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>38</v>
       </c>
@@ -12131,7 +12128,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>38</v>
       </c>
@@ -12179,7 +12176,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>38</v>
       </c>
@@ -12227,7 +12224,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>38</v>
       </c>
@@ -12275,7 +12272,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>38</v>
       </c>
@@ -12323,7 +12320,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>38</v>
       </c>
@@ -12371,7 +12368,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>38</v>
       </c>
@@ -12419,7 +12416,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>38</v>
       </c>
@@ -12467,7 +12464,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>38</v>
       </c>
@@ -12515,7 +12512,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>38</v>
       </c>
@@ -12563,7 +12560,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>38</v>
       </c>
@@ -12611,7 +12608,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>38</v>
       </c>
@@ -12659,7 +12656,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>38</v>
       </c>
@@ -12707,7 +12704,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>38</v>
       </c>
@@ -12749,7 +12746,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>38</v>
       </c>
@@ -12769,7 +12766,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>38</v>
       </c>
@@ -12804,20 +12801,20 @@
       <selection activeCell="N126" sqref="N126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.9140625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.9140625" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12885,7 +12882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>38</v>
       </c>
@@ -12935,7 +12932,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>38</v>
       </c>
@@ -12983,7 +12980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>38</v>
       </c>
@@ -13031,7 +13028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>38</v>
       </c>
@@ -13079,7 +13076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>38</v>
       </c>
@@ -13127,7 +13124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>38</v>
       </c>
@@ -13175,7 +13172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>38</v>
       </c>
@@ -13223,7 +13220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>38</v>
       </c>
@@ -13271,7 +13268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>38</v>
       </c>
@@ -13319,7 +13316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>38</v>
       </c>
@@ -13367,7 +13364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>38</v>
       </c>
@@ -13415,7 +13412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>38</v>
       </c>
@@ -13463,7 +13460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>38</v>
       </c>
@@ -13511,7 +13508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>38</v>
       </c>
@@ -13559,7 +13556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>38</v>
       </c>
@@ -13607,7 +13604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>38</v>
       </c>
@@ -13655,7 +13652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>38</v>
       </c>
@@ -13703,7 +13700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>38</v>
       </c>
@@ -13751,7 +13748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>38</v>
       </c>
@@ -13799,7 +13796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>38</v>
       </c>
@@ -13847,7 +13844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>38</v>
       </c>
@@ -13895,7 +13892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>38</v>
       </c>
@@ -13943,7 +13940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>38</v>
       </c>
@@ -13991,7 +13988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>38</v>
       </c>
@@ -14039,7 +14036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>38</v>
       </c>
@@ -14087,7 +14084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>38</v>
       </c>
@@ -14135,7 +14132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>38</v>
       </c>
@@ -14183,7 +14180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>38</v>
       </c>
@@ -14231,7 +14228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>38</v>
       </c>
@@ -14279,7 +14276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>38</v>
       </c>
@@ -14327,7 +14324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>38</v>
       </c>
@@ -14375,7 +14372,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>38</v>
       </c>
@@ -14423,7 +14420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>38</v>
       </c>
@@ -14471,7 +14468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>38</v>
       </c>
@@ -14519,7 +14516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>38</v>
       </c>
@@ -14567,7 +14564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>38</v>
       </c>
@@ -14615,7 +14612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -14663,7 +14660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -14711,7 +14708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -14759,7 +14756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -14807,7 +14804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
@@ -14855,7 +14852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>38</v>
       </c>
@@ -14903,7 +14900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>38</v>
       </c>
@@ -14951,7 +14948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>38</v>
       </c>
@@ -14999,7 +14996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>38</v>
       </c>
@@ -15047,7 +15044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>38</v>
       </c>
@@ -15095,7 +15092,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>38</v>
       </c>
@@ -15143,7 +15140,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>38</v>
       </c>
@@ -15191,7 +15188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>38</v>
       </c>
@@ -15239,7 +15236,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>38</v>
       </c>
@@ -15287,7 +15284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>38</v>
       </c>
@@ -15335,7 +15332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>38</v>
       </c>
@@ -15383,7 +15380,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>38</v>
       </c>
@@ -15431,7 +15428,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>38</v>
       </c>
@@ -15479,7 +15476,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>38</v>
       </c>
@@ -15527,7 +15524,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>38</v>
       </c>
@@ -15575,7 +15572,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>38</v>
       </c>
@@ -15623,7 +15620,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>38</v>
       </c>
@@ -15671,7 +15668,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>38</v>
       </c>
@@ -15719,7 +15716,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>38</v>
       </c>
@@ -15767,7 +15764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>38</v>
       </c>
@@ -15815,7 +15812,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>38</v>
       </c>
@@ -15863,7 +15860,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>38</v>
       </c>
@@ -15889,7 +15886,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>38</v>
       </c>
@@ -15937,7 +15934,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>38</v>
       </c>
@@ -15985,7 +15982,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>38</v>
       </c>
@@ -16033,7 +16030,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>38</v>
       </c>
@@ -16081,7 +16078,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>38</v>
       </c>
@@ -16129,7 +16126,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>38</v>
       </c>
@@ -16177,7 +16174,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>38</v>
       </c>
@@ -16225,7 +16222,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>38</v>
       </c>
@@ -16273,7 +16270,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>38</v>
       </c>
@@ -16321,7 +16318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>38</v>
       </c>
@@ -16369,7 +16366,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>38</v>
       </c>
@@ -16417,7 +16414,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>38</v>
       </c>
@@ -16465,7 +16462,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>38</v>
       </c>
@@ -16513,7 +16510,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>38</v>
       </c>
@@ -16561,7 +16558,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>38</v>
       </c>
@@ -16609,7 +16606,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>38</v>
       </c>
@@ -16657,7 +16654,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>38</v>
       </c>
@@ -16705,7 +16702,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>38</v>
       </c>
@@ -16753,7 +16750,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>38</v>
       </c>
@@ -16801,7 +16798,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>38</v>
       </c>
@@ -16849,7 +16846,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>38</v>
       </c>
@@ -16897,7 +16894,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>38</v>
       </c>
@@ -16945,7 +16942,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>38</v>
       </c>
@@ -16993,7 +16990,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>38</v>
       </c>
@@ -17041,7 +17038,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>38</v>
       </c>
@@ -17089,7 +17086,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>38</v>
       </c>
@@ -17137,7 +17134,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>38</v>
       </c>
@@ -17185,7 +17182,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>38</v>
       </c>
@@ -17233,7 +17230,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>38</v>
       </c>
@@ -17281,7 +17278,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>38</v>
       </c>
@@ -17329,7 +17326,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>38</v>
       </c>
@@ -17377,7 +17374,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>38</v>
       </c>
@@ -17425,7 +17422,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>38</v>
       </c>
@@ -17473,7 +17470,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>38</v>
       </c>
@@ -17521,7 +17518,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>38</v>
       </c>
@@ -17569,7 +17566,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>38</v>
       </c>
@@ -17617,7 +17614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>38</v>
       </c>
@@ -17665,7 +17662,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>38</v>
       </c>
@@ -17713,7 +17710,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>38</v>
       </c>
@@ -17761,7 +17758,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>38</v>
       </c>
@@ -17809,7 +17806,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>38</v>
       </c>
@@ -17857,7 +17854,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>38</v>
       </c>
@@ -17905,7 +17902,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>38</v>
       </c>
@@ -17953,7 +17950,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>38</v>
       </c>
@@ -18001,7 +17998,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>38</v>
       </c>
@@ -18049,7 +18046,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>38</v>
       </c>
@@ -18097,7 +18094,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>38</v>
       </c>
@@ -18145,7 +18142,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>38</v>
       </c>
@@ -18193,7 +18190,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>38</v>
       </c>
@@ -18241,7 +18238,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>38</v>
       </c>
@@ -18289,7 +18286,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>38</v>
       </c>
@@ -18337,7 +18334,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>38</v>
       </c>
@@ -18385,7 +18382,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>38</v>
       </c>
@@ -18433,7 +18430,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>38</v>
       </c>
@@ -18481,7 +18478,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>38</v>
       </c>
@@ -18529,7 +18526,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>38</v>
       </c>
@@ -18577,7 +18574,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>38</v>
       </c>
@@ -18625,7 +18622,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>38</v>
       </c>
@@ -18673,7 +18670,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>38</v>
       </c>
@@ -18721,7 +18718,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>38</v>
       </c>
@@ -18769,7 +18766,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>38</v>
       </c>
@@ -18817,7 +18814,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>38</v>
       </c>
@@ -18865,7 +18862,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>38</v>
       </c>
@@ -18907,7 +18904,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>38</v>
       </c>
@@ -18927,7 +18924,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>38</v>
       </c>
@@ -18959,23 +18956,23 @@
   <dimension ref="A1:X129"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.9140625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19043,7 +19040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>38</v>
       </c>
@@ -19093,7 +19090,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>38</v>
       </c>
@@ -19141,7 +19138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>38</v>
       </c>
@@ -19189,7 +19186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>38</v>
       </c>
@@ -19237,7 +19234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>38</v>
       </c>
@@ -19285,7 +19282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>38</v>
       </c>
@@ -19333,7 +19330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>38</v>
       </c>
@@ -19381,7 +19378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>38</v>
       </c>
@@ -19429,7 +19426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>38</v>
       </c>
@@ -19477,7 +19474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>38</v>
       </c>
@@ -19525,7 +19522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>38</v>
       </c>
@@ -19573,7 +19570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>38</v>
       </c>
@@ -19621,7 +19618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>38</v>
       </c>
@@ -19669,7 +19666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>38</v>
       </c>
@@ -19717,7 +19714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>38</v>
       </c>
@@ -19765,7 +19762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>38</v>
       </c>
@@ -19813,7 +19810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>38</v>
       </c>
@@ -19861,7 +19858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>38</v>
       </c>
@@ -19909,7 +19906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>38</v>
       </c>
@@ -19957,7 +19954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>38</v>
       </c>
@@ -20005,7 +20002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>38</v>
       </c>
@@ -20053,7 +20050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>38</v>
       </c>
@@ -20101,7 +20098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>38</v>
       </c>
@@ -20149,7 +20146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>38</v>
       </c>
@@ -20197,7 +20194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>38</v>
       </c>
@@ -20245,7 +20242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>38</v>
       </c>
@@ -20293,7 +20290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>38</v>
       </c>
@@ -20341,7 +20338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>38</v>
       </c>
@@ -20389,7 +20386,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>38</v>
       </c>
@@ -20437,7 +20434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>38</v>
       </c>
@@ -20485,7 +20482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>38</v>
       </c>
@@ -20533,7 +20530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>38</v>
       </c>
@@ -20581,7 +20578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>38</v>
       </c>
@@ -20629,7 +20626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>38</v>
       </c>
@@ -20677,7 +20674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>38</v>
       </c>
@@ -20725,7 +20722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>38</v>
       </c>
@@ -20773,7 +20770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -20821,7 +20818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -20869,7 +20866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -20917,7 +20914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -20965,7 +20962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
@@ -21013,7 +21010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>38</v>
       </c>
@@ -21061,7 +21058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>38</v>
       </c>
@@ -21109,7 +21106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>38</v>
       </c>
@@ -21157,7 +21154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>38</v>
       </c>
@@ -21205,7 +21202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>38</v>
       </c>
@@ -21253,7 +21250,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>38</v>
       </c>
@@ -21301,7 +21298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>38</v>
       </c>
@@ -21349,7 +21346,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>38</v>
       </c>
@@ -21397,7 +21394,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>38</v>
       </c>
@@ -21445,7 +21442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>38</v>
       </c>
@@ -21493,7 +21490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>38</v>
       </c>
@@ -21541,7 +21538,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>38</v>
       </c>
@@ -21589,7 +21586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>38</v>
       </c>
@@ -21637,7 +21634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>38</v>
       </c>
@@ -21685,7 +21682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>38</v>
       </c>
@@ -21733,7 +21730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>38</v>
       </c>
@@ -21781,7 +21778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>38</v>
       </c>
@@ -21829,7 +21826,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>38</v>
       </c>
@@ -21877,7 +21874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>38</v>
       </c>
@@ -21925,7 +21922,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>38</v>
       </c>
@@ -21973,7 +21970,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>38</v>
       </c>
@@ -22021,7 +22018,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>38</v>
       </c>
@@ -22047,7 +22044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>38</v>
       </c>
@@ -22095,7 +22092,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>38</v>
       </c>
@@ -22143,7 +22140,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>38</v>
       </c>
@@ -22191,7 +22188,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>38</v>
       </c>
@@ -22239,7 +22236,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>38</v>
       </c>
@@ -22287,7 +22284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>38</v>
       </c>
@@ -22335,7 +22332,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>38</v>
       </c>
@@ -22383,7 +22380,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>38</v>
       </c>
@@ -22431,7 +22428,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>38</v>
       </c>
@@ -22479,7 +22476,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>38</v>
       </c>
@@ -22527,7 +22524,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>38</v>
       </c>
@@ -22575,7 +22572,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>38</v>
       </c>
@@ -22623,7 +22620,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>38</v>
       </c>
@@ -22671,7 +22668,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>38</v>
       </c>
@@ -22719,7 +22716,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>38</v>
       </c>
@@ -22767,7 +22764,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>38</v>
       </c>
@@ -22815,7 +22812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>38</v>
       </c>
@@ -22863,7 +22860,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>38</v>
       </c>
@@ -22911,7 +22908,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>38</v>
       </c>
@@ -22959,7 +22956,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>38</v>
       </c>
@@ -23007,7 +23004,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>38</v>
       </c>
@@ -23055,7 +23052,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>38</v>
       </c>
@@ -23103,7 +23100,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>38</v>
       </c>
@@ -23151,7 +23148,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>38</v>
       </c>
@@ -23199,7 +23196,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>38</v>
       </c>
@@ -23247,7 +23244,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>38</v>
       </c>
@@ -23295,7 +23292,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>38</v>
       </c>
@@ -23343,7 +23340,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>38</v>
       </c>
@@ -23391,7 +23388,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>38</v>
       </c>
@@ -23439,7 +23436,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>38</v>
       </c>
@@ -23487,7 +23484,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>38</v>
       </c>
@@ -23535,7 +23532,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>38</v>
       </c>
@@ -23583,7 +23580,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>38</v>
       </c>
@@ -23631,7 +23628,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>38</v>
       </c>
@@ -23679,7 +23676,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>38</v>
       </c>
@@ -23727,7 +23724,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>38</v>
       </c>
@@ -23775,7 +23772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>38</v>
       </c>
@@ -23823,7 +23820,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>38</v>
       </c>
@@ -23871,7 +23868,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>38</v>
       </c>
@@ -23919,7 +23916,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>38</v>
       </c>
@@ -23967,7 +23964,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>38</v>
       </c>
@@ -24015,7 +24012,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>38</v>
       </c>
@@ -24063,7 +24060,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>38</v>
       </c>
@@ -24111,7 +24108,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>38</v>
       </c>
@@ -24159,7 +24156,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>38</v>
       </c>
@@ -24207,7 +24204,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>38</v>
       </c>
@@ -24255,7 +24252,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>38</v>
       </c>
@@ -24303,7 +24300,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>38</v>
       </c>
@@ -24351,7 +24348,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>38</v>
       </c>
@@ -24399,7 +24396,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>38</v>
       </c>
@@ -24447,7 +24444,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>38</v>
       </c>
@@ -24495,7 +24492,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>38</v>
       </c>
@@ -24543,7 +24540,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>38</v>
       </c>
@@ -24591,7 +24588,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>38</v>
       </c>
@@ -24639,7 +24636,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>38</v>
       </c>
@@ -24687,7 +24684,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>38</v>
       </c>
@@ -24735,7 +24732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>38</v>
       </c>
@@ -24783,7 +24780,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>38</v>
       </c>
@@ -24831,7 +24828,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>38</v>
       </c>
@@ -24879,7 +24876,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>38</v>
       </c>
@@ -24927,7 +24924,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>38</v>
       </c>
@@ -24975,7 +24972,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>38</v>
       </c>
@@ -25023,7 +25020,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>38</v>
       </c>
@@ -25065,7 +25062,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>38</v>
       </c>
@@ -25085,7 +25082,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>38</v>
       </c>
@@ -25116,6 +25113,747 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13B2D97-90D8-EB43-8521-DF453E4BF7BE}">
+  <dimension ref="A1:X15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.19</v>
+      </c>
+      <c r="L2">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>65</v>
+      </c>
+      <c r="P2">
+        <v>65</v>
+      </c>
+      <c r="Q2">
+        <v>113</v>
+      </c>
+      <c r="R2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>66</v>
+      </c>
+      <c r="P3">
+        <v>66</v>
+      </c>
+      <c r="Q3">
+        <v>14</v>
+      </c>
+      <c r="R3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.21</v>
+      </c>
+      <c r="L4">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>97</v>
+      </c>
+      <c r="P4">
+        <v>69</v>
+      </c>
+      <c r="Q4">
+        <v>39</v>
+      </c>
+      <c r="R4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.215</v>
+      </c>
+      <c r="L5">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>98</v>
+      </c>
+      <c r="P5">
+        <v>70</v>
+      </c>
+      <c r="Q5">
+        <v>64</v>
+      </c>
+      <c r="R5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>69</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.23</v>
+      </c>
+      <c r="L6">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="M6">
+        <v>-1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>67</v>
+      </c>
+      <c r="P6">
+        <v>73</v>
+      </c>
+      <c r="Q6">
+        <v>89</v>
+      </c>
+      <c r="R6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>68</v>
+      </c>
+      <c r="P7">
+        <v>74</v>
+      </c>
+      <c r="Q7">
+        <v>114</v>
+      </c>
+      <c r="R7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>71</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.06</v>
+      </c>
+      <c r="L8">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>99</v>
+      </c>
+      <c r="P8">
+        <v>77</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+      <c r="R8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>72</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.08</v>
+      </c>
+      <c r="L9">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>78</v>
+      </c>
+      <c r="Q9">
+        <v>40</v>
+      </c>
+      <c r="R9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>97</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="L10">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>81</v>
+      </c>
+      <c r="P10">
+        <v>67</v>
+      </c>
+      <c r="Q10">
+        <v>45</v>
+      </c>
+      <c r="R10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>98</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>82</v>
+      </c>
+      <c r="P11">
+        <v>68</v>
+      </c>
+      <c r="Q11">
+        <v>70</v>
+      </c>
+      <c r="R11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.22</v>
+      </c>
+      <c r="L12">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>113</v>
+      </c>
+      <c r="P12">
+        <v>71</v>
+      </c>
+      <c r="Q12">
+        <v>95</v>
+      </c>
+      <c r="R12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>114</v>
+      </c>
+      <c r="P13">
+        <v>72</v>
+      </c>
+      <c r="Q13">
+        <v>120</v>
+      </c>
+      <c r="R13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>101</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.24</v>
+      </c>
+      <c r="L14">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>83</v>
+      </c>
+      <c r="P14">
+        <v>75</v>
+      </c>
+      <c r="Q14">
+        <v>21</v>
+      </c>
+      <c r="R14">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.245</v>
+      </c>
+      <c r="L15">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>84</v>
+      </c>
+      <c r="P15">
+        <v>76</v>
+      </c>
+      <c r="Q15">
+        <v>46</v>
+      </c>
+      <c r="R15">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X129"/>
   <sheetViews>
@@ -25123,20 +25861,20 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.9140625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25201,7 +25939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>38</v>
       </c>
@@ -25242,7 +25980,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>38</v>
       </c>
@@ -25281,7 +26019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>38</v>
       </c>
@@ -25320,7 +26058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>38</v>
       </c>
@@ -25359,7 +26097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>38</v>
       </c>
@@ -25398,7 +26136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>38</v>
       </c>
@@ -25437,7 +26175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>38</v>
       </c>
@@ -25476,7 +26214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>38</v>
       </c>
@@ -25515,7 +26253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>38</v>
       </c>
@@ -25554,7 +26292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>38</v>
       </c>
@@ -25593,7 +26331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>38</v>
       </c>
@@ -25632,7 +26370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>38</v>
       </c>
@@ -25671,7 +26409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>38</v>
       </c>
@@ -25710,7 +26448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>38</v>
       </c>
@@ -25749,7 +26487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>38</v>
       </c>
@@ -25788,7 +26526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>38</v>
       </c>
@@ -25827,7 +26565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>38</v>
       </c>
@@ -25866,7 +26604,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>38</v>
       </c>
@@ -25905,7 +26643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>38</v>
       </c>
@@ -25944,7 +26682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>38</v>
       </c>
@@ -25983,7 +26721,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>38</v>
       </c>
@@ -26022,7 +26760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>38</v>
       </c>
@@ -26061,7 +26799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>38</v>
       </c>
@@ -26100,7 +26838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>38</v>
       </c>
@@ -26139,7 +26877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>38</v>
       </c>
@@ -26178,7 +26916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>38</v>
       </c>
@@ -26217,7 +26955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>38</v>
       </c>
@@ -26256,7 +26994,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>38</v>
       </c>
@@ -26295,7 +27033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>38</v>
       </c>
@@ -26334,7 +27072,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>38</v>
       </c>
@@ -26373,7 +27111,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>38</v>
       </c>
@@ -26412,7 +27150,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>38</v>
       </c>
@@ -26451,7 +27189,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>38</v>
       </c>
@@ -26490,7 +27228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>38</v>
       </c>
@@ -26529,7 +27267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>38</v>
       </c>
@@ -26568,7 +27306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>38</v>
       </c>
@@ -26607,7 +27345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -26646,7 +27384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -26685,7 +27423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -26724,7 +27462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -26763,7 +27501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
@@ -26802,7 +27540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>38</v>
       </c>
@@ -26841,7 +27579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>38</v>
       </c>
@@ -26880,7 +27618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>38</v>
       </c>
@@ -26919,7 +27657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>38</v>
       </c>
@@ -26958,7 +27696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>38</v>
       </c>
@@ -26997,7 +27735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>38</v>
       </c>
@@ -27036,7 +27774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>38</v>
       </c>
@@ -27075,7 +27813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>38</v>
       </c>
@@ -27114,7 +27852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>38</v>
       </c>
@@ -27153,7 +27891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>38</v>
       </c>
@@ -27192,7 +27930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>38</v>
       </c>
@@ -27231,7 +27969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>38</v>
       </c>
@@ -27270,7 +28008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>38</v>
       </c>
@@ -27309,7 +28047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>38</v>
       </c>
@@ -27348,7 +28086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>38</v>
       </c>
@@ -27387,7 +28125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>38</v>
       </c>
@@ -27426,7 +28164,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>38</v>
       </c>
@@ -27465,7 +28203,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>38</v>
       </c>
@@ -27504,7 +28242,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>38</v>
       </c>
@@ -27543,7 +28281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>38</v>
       </c>
@@ -27582,7 +28320,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>38</v>
       </c>
@@ -27621,7 +28359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>38</v>
       </c>
@@ -27660,7 +28398,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>38</v>
       </c>
@@ -27699,7 +28437,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>38</v>
       </c>
@@ -27738,7 +28476,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>38</v>
       </c>
@@ -27777,7 +28515,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>38</v>
       </c>
@@ -27816,7 +28554,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>38</v>
       </c>
@@ -27855,7 +28593,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>38</v>
       </c>
@@ -27894,7 +28632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>38</v>
       </c>
@@ -27933,7 +28671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>38</v>
       </c>
@@ -27972,7 +28710,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>38</v>
       </c>
@@ -28011,7 +28749,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>38</v>
       </c>
@@ -28050,7 +28788,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>38</v>
       </c>
@@ -28089,7 +28827,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>38</v>
       </c>
@@ -28128,7 +28866,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>38</v>
       </c>
@@ -28167,7 +28905,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>38</v>
       </c>
@@ -28206,7 +28944,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>38</v>
       </c>
@@ -28245,7 +28983,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>38</v>
       </c>
@@ -28284,7 +29022,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>38</v>
       </c>
@@ -28323,7 +29061,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>38</v>
       </c>
@@ -28362,7 +29100,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>38</v>
       </c>
@@ -28401,7 +29139,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>38</v>
       </c>
@@ -28440,7 +29178,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>38</v>
       </c>
@@ -28479,7 +29217,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>38</v>
       </c>
@@ -28518,7 +29256,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>38</v>
       </c>
@@ -28557,7 +29295,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>38</v>
       </c>
@@ -28596,7 +29334,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>38</v>
       </c>
@@ -28635,7 +29373,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>38</v>
       </c>
@@ -28674,7 +29412,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>38</v>
       </c>
@@ -28713,7 +29451,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>38</v>
       </c>
@@ -28752,7 +29490,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>38</v>
       </c>
@@ -28791,7 +29529,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>38</v>
       </c>
@@ -28830,7 +29568,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>38</v>
       </c>
@@ -28869,7 +29607,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>38</v>
       </c>
@@ -28908,7 +29646,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>38</v>
       </c>
@@ -28947,7 +29685,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>38</v>
       </c>
@@ -28986,7 +29724,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>38</v>
       </c>
@@ -29025,7 +29763,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>38</v>
       </c>
@@ -29064,7 +29802,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>38</v>
       </c>
@@ -29103,7 +29841,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>38</v>
       </c>
@@ -29142,7 +29880,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>38</v>
       </c>
@@ -29181,7 +29919,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>38</v>
       </c>
@@ -29220,7 +29958,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>38</v>
       </c>
@@ -29259,7 +29997,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>38</v>
       </c>
@@ -29298,7 +30036,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>38</v>
       </c>
@@ -29337,7 +30075,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>38</v>
       </c>
@@ -29376,7 +30114,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>38</v>
       </c>
@@ -29415,7 +30153,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>38</v>
       </c>
@@ -29454,7 +30192,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>38</v>
       </c>
@@ -29493,7 +30231,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>38</v>
       </c>
@@ -29532,7 +30270,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>38</v>
       </c>
@@ -29571,7 +30309,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>38</v>
       </c>
@@ -29610,7 +30348,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>38</v>
       </c>
@@ -29649,7 +30387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>38</v>
       </c>
@@ -29688,7 +30426,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>38</v>
       </c>
@@ -29727,7 +30465,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>38</v>
       </c>
@@ -29766,7 +30504,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>38</v>
       </c>
@@ -29805,7 +30543,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>38</v>
       </c>
@@ -29844,7 +30582,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>38</v>
       </c>
@@ -29883,7 +30621,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>38</v>
       </c>
@@ -29922,7 +30660,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>38</v>
       </c>
@@ -29961,7 +30699,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>38</v>
       </c>
@@ -30000,7 +30738,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>38</v>
       </c>
@@ -30039,7 +30777,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>38</v>
       </c>
@@ -30078,7 +30816,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>38</v>
       </c>
@@ -30092,7 +30830,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>38</v>
       </c>
@@ -30106,7 +30844,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>38</v>
       </c>
@@ -30130,7 +30868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE345ED-17D5-49FF-AFF7-BB40D48FA6F7}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
@@ -30138,9 +30876,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -30217,7 +30955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>26</v>
       </c>
@@ -30294,7 +31032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>51</v>
       </c>
@@ -30371,7 +31109,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>77</v>
       </c>
@@ -30448,7 +31186,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>102</v>
       </c>
